--- a/01.MODELO PERSEPOLIS/02.Ejecucion/03.Frente Tecnologia/repositorios/empresa/soluciones/sbb/Estructura Funcional Demo.xlsx
+++ b/01.MODELO PERSEPOLIS/02.Ejecucion/03.Frente Tecnologia/repositorios/empresa/soluciones/sbb/Estructura Funcional Demo.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Dropbox\privada\Persepolis\01.MODELO PERSEPOLIS\02.Ejecucion\03.Frente Tecnologia\repositorios\empresa\soluciones\sbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0.0 Intención Estratégica" sheetId="6" r:id="rId1"/>
-    <sheet name="7.0 IniciativasSolucion" sheetId="5" r:id="rId2"/>
+    <sheet name="1. Grp Estratégicos" sheetId="6" r:id="rId1"/>
+    <sheet name="2. MO &amp; I de Grupos" sheetId="5" r:id="rId2"/>
     <sheet name="8.0 PriorizacionProyectos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="9.0 RoadmapTransformacion" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="10.0 Compración-PriorizacionPro" sheetId="4" state="hidden" r:id="rId5"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="226">
   <si>
     <t>Descripción</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>ABB-ID</t>
-  </si>
-  <si>
     <t>Criterio</t>
   </si>
   <si>
@@ -132,18 +129,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>SN-1</t>
-  </si>
-  <si>
-    <t>SN-2</t>
-  </si>
-  <si>
-    <t>SN-3</t>
-  </si>
-  <si>
-    <t>SN-4</t>
-  </si>
-  <si>
     <t>Metas de negocio</t>
   </si>
   <si>
@@ -561,31 +546,10 @@
     <t>Reporte de capacidad actual, ampliaciones, proyectos en obra</t>
   </si>
   <si>
-    <t>Objetivo de la Meta</t>
-  </si>
-  <si>
     <t>Prestación de Servicios de Salud (Primer, segundo y tercer nivel de atención)</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>MT-1. OBJ1</t>
-  </si>
-  <si>
-    <t>MT-2. OBJ2</t>
-  </si>
-  <si>
-    <t>MT-1. OBJ2</t>
-  </si>
-  <si>
-    <t>MT-1. OBJ3</t>
-  </si>
-  <si>
-    <t>MT-1. OBJ4</t>
-  </si>
-  <si>
-    <t>Indicador 1: Composición del indicadore</t>
   </si>
   <si>
     <t>Esfuerzo
@@ -596,33 +560,169 @@
 (COP)</t>
   </si>
   <si>
-    <t>MT-2. OBJ1</t>
-  </si>
-  <si>
-    <t>MT-2. OBJ3</t>
-  </si>
-  <si>
-    <t>MT-2. OBJ4</t>
-  </si>
-  <si>
     <t>Construccion de Casos e indicadores</t>
   </si>
   <si>
-    <t>Grupos Jerarquicos Tablero Control</t>
-  </si>
-  <si>
     <t>Estructura de cada Meta del Grupo</t>
+  </si>
+  <si>
+    <t>Grupos Monitor  Tablero Control</t>
+  </si>
+  <si>
+    <t>Número de homicidios</t>
+  </si>
+  <si>
+    <t>Tasa de violencia intra-familiar</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>OBJ-1</t>
+  </si>
+  <si>
+    <t>Atentados contra la infraestructura</t>
+  </si>
+  <si>
+    <t>Hectáreas de cultivo</t>
+  </si>
+  <si>
+    <t>Desmovilizados individuales</t>
+  </si>
+  <si>
+    <t>OBJ-2</t>
+  </si>
+  <si>
+    <t>OBJ-3</t>
+  </si>
+  <si>
+    <t>Formulación</t>
+  </si>
+  <si>
+    <t>Cobertura de vacunación</t>
+  </si>
+  <si>
+    <t>Mortalidad por malaria</t>
+  </si>
+  <si>
+    <t>Prevalencia de VIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de captación </t>
+  </si>
+  <si>
+    <t>Porcentaje de PQRS solucionadas</t>
+  </si>
+  <si>
+    <t>Calificación del servicio público</t>
+  </si>
+  <si>
+    <t>Porcentaje de cumplimiento</t>
+  </si>
+  <si>
+    <t>Porcentaje información de infraestructura</t>
+  </si>
+  <si>
+    <t>Cumplimiento de rutas de lectura</t>
+  </si>
+  <si>
+    <t>Disminución de costos por lectura</t>
+  </si>
+  <si>
+    <t>Porcentaje de impacto poblacional</t>
+  </si>
+  <si>
+    <t>Porcentaje de personas subsidiadas</t>
+  </si>
+  <si>
+    <t>Porcentaje de avance de los Proyectos</t>
+  </si>
+  <si>
+    <t>Reporte de cumplimiento</t>
+  </si>
+  <si>
+    <t>OBJ-4</t>
+  </si>
+  <si>
+    <t>OBJ-5</t>
+  </si>
+  <si>
+    <t>Cada indicador es convertido a su valor equivalente en el rango de 1 a 5. Siendo 5 el de mayor puntaje para el indicador. Ejemplo: Cobertura de vacunación aparece en la fuente como 65%. En este caso la conversión es el 65% de 5, que es el máximo valor del puntaje de la escala.</t>
+  </si>
+  <si>
+    <t>El puntaje de cada objetivo es la suma de los valores individuales de los indicadores del objetivo. SI la suma más de 5 puntos, se asigna 5 directamente al objetivo. La escala usada para los valores de los objetivos es 1 a 5 nuevamente.</t>
+  </si>
+  <si>
+    <t>GRP-1</t>
+  </si>
+  <si>
+    <t>GRP-2</t>
+  </si>
+  <si>
+    <t>GRP-3</t>
+  </si>
+  <si>
+    <t>GRP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El grupo GRP-1: medir gestión, es el promedio del puntaje de sus metas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Descripción / Valor</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>50% - 63%</t>
+  </si>
+  <si>
+    <t>Puntaje (1-5)</t>
+  </si>
+  <si>
+    <t>Influencia de BACRIM</t>
+  </si>
+  <si>
+    <t>Si,
+Indicador1 = 1.25
+Indicador2 = 2.25</t>
+  </si>
+  <si>
+    <t>Si,
+Indicador1 = 2.4
+Indicador2 = 3.13</t>
+  </si>
+  <si>
+    <t>Si,
+Indicador1 = 1.09
+Indicador2 = 0.14</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Porcentaje de mitigación de la obsolescencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +895,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -912,7 +1027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1326,6 +1441,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1336,7 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFill="1"/>
@@ -1482,13 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1514,33 +1632,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="24" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,6 +1731,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2034,11 +2231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446349920"/>
-        <c:axId val="446350464"/>
+        <c:axId val="347941152"/>
+        <c:axId val="347924832"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="446349920"/>
+        <c:axId val="347941152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2263,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446350464"/>
+        <c:crossAx val="347924832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446350464"/>
+        <c:axId val="347924832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2299,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446349920"/>
+        <c:crossAx val="347941152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,17 +2790,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R37"/>
+  <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="26.7109375" customWidth="1"/>
+    <col min="4" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -2613,13 +2812,13 @@
       <c r="E1" s="49"/>
     </row>
     <row r="2" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -2662,12 +2861,14 @@
       <c r="R4" s="50"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="50"/>
+      <c r="D5" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="47" t="s">
+        <v>190</v>
+      </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
@@ -2682,22 +2883,24 @@
     </row>
     <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="112"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
@@ -2711,22 +2914,22 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+        <v>132</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="108"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
@@ -2739,17 +2942,22 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="95" t="str">
+        <f>CONCATENATE("Puntaje ",ROUND(AVERAGE(D8:F8),2))</f>
+        <v>Puntaje 4.4</v>
+      </c>
+      <c r="D8" s="80">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="80">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="80">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G8" s="108"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
@@ -2763,16 +2971,16 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+        <v>133</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
@@ -2786,16 +2994,16 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="50"/>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
@@ -2807,14 +3015,18 @@
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
@@ -2827,13 +3039,13 @@
       <c r="R11" s="50"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
@@ -2847,7 +3059,7 @@
     </row>
     <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
-      <c r="C13" s="81"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -2864,7 +3076,12 @@
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -2878,47 +3095,47 @@
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+    <row r="16" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
@@ -2933,30 +3150,9 @@
       <c r="R17" s="50"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>169</v>
-      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
       <c r="L18" s="50"/>
@@ -2967,270 +3163,359 @@
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="83" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="82"/>
+      <c r="J20" s="107" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="D21" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="82"/>
+      <c r="J21" s="108"/>
+    </row>
+    <row r="22" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="108"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="82" t="str">
+        <f>CONCATENATE("Objetivo = ",3.5)</f>
+        <v>Objetivo = 3.5</v>
+      </c>
+      <c r="E23" s="82" t="str">
+        <f>CONCATENATE("Objetivo = ",5)</f>
+        <v>Objetivo = 5</v>
+      </c>
+      <c r="F23" s="82" t="str">
+        <f>CONCATENATE("Objetivo = ",1.2)</f>
+        <v>Objetivo = 1.2</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="108"/>
+    </row>
+    <row r="24" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="82"/>
+      <c r="J24" s="108"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="109"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-    </row>
-    <row r="20" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="84" t="s">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-    </row>
-    <row r="21" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="84" t="s">
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="83" t="s">
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="83" t="s">
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-    </row>
-    <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="83" t="s">
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-    </row>
-    <row r="29" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="83" t="s">
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-    </row>
-    <row r="30" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="83" t="s">
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-    </row>
-    <row r="31" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="83" t="s">
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-    </row>
-    <row r="32" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="83" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-    </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-    </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-    </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-    </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="J20:J25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G6:G12"/>
+    <mergeCell ref="H6:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3239,56 +3524,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-    </row>
-    <row r="4" spans="1:7" s="90" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="1:7" s="90" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+    </row>
+    <row r="4" spans="1:10" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+    </row>
+    <row r="5" spans="1:10" s="85" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3296,402 +3587,537 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="118" t="str">
+        <f>'1. Grp Estratégicos'!C7</f>
+        <v>Medir gestión del Municipio</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="118"/>
+      <c r="C8" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="96">
+        <v>0.65</v>
+      </c>
+      <c r="G8" s="103">
+        <f>F8*5</f>
+        <v>3.25</v>
+      </c>
+      <c r="H8" s="90">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25" t="s">
+      <c r="I8" s="91">
+        <f>H8*30000</f>
+        <v>300000</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="118"/>
+      <c r="C9" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="104">
+        <f>30%*5</f>
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="120">
+        <v>20</v>
+      </c>
+      <c r="I9" s="91">
+        <f>H9*30000</f>
+        <v>600000</v>
+      </c>
+      <c r="J9" s="108"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="118"/>
+      <c r="C10" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="103">
+        <v>5</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="118"/>
+      <c r="C11" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="105">
+        <f>AVERAGE(50%*5, 63%*5)</f>
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="118"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="89">
+        <f>SUM(I8:I11)</f>
+        <v>900000</v>
+      </c>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="118"/>
+      <c r="C13" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="98">
+        <v>120</v>
+      </c>
+      <c r="G13" s="103">
+        <f>(1-(F13/160))*5</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="90">
+        <v>10</v>
+      </c>
+      <c r="I13" s="91">
+        <f t="shared" ref="I13:I18" si="0">H13*30000</f>
+        <v>300000</v>
+      </c>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="118"/>
+      <c r="C14" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="106">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="104">
+        <f>F14*5</f>
+        <v>2.25</v>
+      </c>
+      <c r="H14" s="90">
+        <v>8</v>
+      </c>
+      <c r="I14" s="91">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="118"/>
+      <c r="C15" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="96">
+        <v>0.48</v>
+      </c>
+      <c r="G15" s="103">
+        <f>F15*5</f>
+        <v>2.4</v>
+      </c>
+      <c r="H15" s="90">
+        <v>4</v>
+      </c>
+      <c r="I15" s="91">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="118"/>
+      <c r="C16" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="74">
+        <v>10</v>
+      </c>
+      <c r="G16" s="103">
+        <f>((F16/16))*5</f>
+        <v>3.125</v>
+      </c>
+      <c r="H16" s="90">
+        <v>4</v>
+      </c>
+      <c r="I16" s="91">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="J16" s="108"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="118"/>
+      <c r="C17" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="74">
+        <v>125</v>
+      </c>
+      <c r="G17" s="103">
+        <f>(1-(F17/160))*5</f>
+        <v>1.09375</v>
+      </c>
+      <c r="H17" s="90">
+        <v>4</v>
+      </c>
+      <c r="I17" s="91">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="J17" s="108"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="118"/>
+      <c r="C18" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="F18" s="74">
+        <v>180</v>
+      </c>
+      <c r="G18" s="105">
+        <f>(1-(F18/185))*5</f>
+        <v>0.13513513513513487</v>
+      </c>
+      <c r="H18" s="90">
+        <v>4</v>
+      </c>
+      <c r="I18" s="91">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="J18" s="108"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="118"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="89">
+        <f>SUM(I13:I18)</f>
+        <v>1020000</v>
+      </c>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="118"/>
+      <c r="C20" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="108"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="118"/>
+      <c r="C21" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="109"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="118"/>
+      <c r="C22" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="76">
-        <v>1</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="85">
-        <v>350</v>
-      </c>
-      <c r="G8" s="75">
-        <f>F8*8*45</f>
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="76">
-        <v>2</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="76">
-        <v>3</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="76">
-        <v>4</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="76">
-        <v>5</v>
-      </c>
-      <c r="C12" s="78" t="s">
+      <c r="E22" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="118"/>
+      <c r="C23" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="P23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="118"/>
+      <c r="C24" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="86">
-        <v>350</v>
-      </c>
-      <c r="G12" s="88">
-        <f>F12*8*45</f>
-        <v>126000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="76">
-        <v>6</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="76">
-        <v>7</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="76">
-        <v>8</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="76">
-        <v>9</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="89"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="76">
-        <v>10</v>
-      </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="76">
-        <v>11</v>
-      </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="76">
-        <v>12</v>
-      </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="76">
-        <v>13</v>
-      </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="76">
-        <v>14</v>
-      </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="76">
-        <v>15</v>
-      </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="76">
-        <v>16</v>
-      </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="76">
-        <v>17</v>
-      </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="89"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="76">
-        <v>18</v>
-      </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="76">
-        <v>19</v>
-      </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="73"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="76">
-        <v>20</v>
-      </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="76">
-        <v>21</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="88"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="76">
-        <v>22</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="73"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="76">
-        <v>23</v>
-      </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="73"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="76">
-        <v>24</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="73"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="76">
-        <v>25</v>
-      </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="77"/>
+      <c r="E24" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="75"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="118"/>
+      <c r="C25" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="118"/>
+      <c r="C26" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="118"/>
+      <c r="C27" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="119"/>
+      <c r="C28" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="117" t="str">
+        <f>'1. Grp Estratégicos'!B7</f>
+        <v>GRP-1</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="94"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="118"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="118"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="119"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="77"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="89"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="76">
-        <v>26</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="73"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="76">
-        <v>27</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="73"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="76">
-        <v>28</v>
-      </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="76">
-        <v>29</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="88"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="76">
-        <v>30</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="73"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="76">
-        <v>31</v>
-      </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="73"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="76">
-        <v>32</v>
-      </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="73"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="76">
-        <v>33</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="89"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B3:G3"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J8:J21"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B7:B28"/>
+    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3719,39 +4145,39 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="29"/>
-      <c r="B1" s="94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3760,13 +4186,13 @@
     </row>
     <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="B4" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="2"/>
@@ -3777,11 +4203,11 @@
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
       <c r="I5" s="2"/>
@@ -3792,11 +4218,11 @@
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="2"/>
@@ -3807,11 +4233,11 @@
     </row>
     <row r="7" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="2"/>
@@ -3850,16 +4276,16 @@
     <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="110" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
       <c r="G10" s="6"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -3871,16 +4297,16 @@
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10">
         <v>0.2</v>
       </c>
-      <c r="D11" s="111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3897,11 +4323,11 @@
       <c r="C12" s="10">
         <v>0.4</v>
       </c>
-      <c r="D12" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
+      <c r="D12" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3918,11 +4344,11 @@
       <c r="C13" s="10">
         <v>0.1</v>
       </c>
-      <c r="D13" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
+      <c r="D13" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3939,11 +4365,11 @@
       <c r="C14" s="10">
         <v>0.3</v>
       </c>
-      <c r="D14" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
+      <c r="D14" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3969,13 +4395,13 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
-      <c r="B16" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="B16" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3986,11 +4412,11 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="6"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4001,11 +4427,11 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="6"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4016,13 +4442,13 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
+      <c r="B19" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="6"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -4048,14 +4474,14 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="134"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -4065,13 +4491,13 @@
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
+      <c r="C22" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -4082,7 +4508,7 @@
     <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
@@ -4109,7 +4535,7 @@
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -4137,7 +4563,7 @@
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -4165,7 +4591,7 @@
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -4193,7 +4619,7 @@
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="19">
         <v>3</v>
@@ -4221,7 +4647,7 @@
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="19">
         <v>3</v>
@@ -4249,7 +4675,7 @@
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="19">
         <v>5</v>
@@ -4440,25 +4866,25 @@
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29"/>
-      <c r="B2" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="B2" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -4482,193 +4908,193 @@
     <row r="5" spans="1:12" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="43" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="I8" s="43"/>
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115" t="s">
-        <v>76</v>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="43" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="I9" s="43"/>
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="114" t="s">
+      <c r="I11" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>65</v>
-      </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I12" s="41"/>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
@@ -4708,83 +5134,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="D2" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
+      <c r="D2" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="4:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="27"/>
     </row>
     <row r="4" spans="4:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
     </row>
     <row r="5" spans="4:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
+      <c r="D5" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
     </row>
     <row r="6" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
     </row>
     <row r="9" spans="4:19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -4826,51 +5252,51 @@
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
+      <c r="B3" s="141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="143"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
+      <c r="B5" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="149"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52"/>
@@ -4886,106 +5312,106 @@
       <c r="L6" s="52"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="130"/>
+      <c r="B7" s="153" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="155"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-      <c r="G9" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-      <c r="L9" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
-      <c r="Q9" s="119" t="s">
+      <c r="B9" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="G9" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="152"/>
+      <c r="L9" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="Q9" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="146"/>
     </row>
     <row r="10" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="O10" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -5170,106 +5596,106 @@
     </row>
     <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
+      <c r="B22" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="G24" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
-      <c r="L24" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="127"/>
-      <c r="Q24" s="119" t="s">
+      <c r="B24" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="G24" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="121"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="L24" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
+      <c r="Q24" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="146"/>
     </row>
     <row r="25" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D25" s="61" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I25" s="61" t="s">
         <v>0</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N25" s="61" t="s">
         <v>0</v>
       </c>
       <c r="O25" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P25" s="21"/>
       <c r="Q25" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S25" s="61" t="s">
         <v>0</v>
       </c>
       <c r="T25" s="62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
@@ -5490,214 +5916,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
+      <c r="B3" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="136"/>
+        <v>92</v>
+      </c>
+      <c r="C5" s="159" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="161"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
+        <v>79</v>
+      </c>
+      <c r="C6" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+        <v>93</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="137" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+        <v>78</v>
+      </c>
+      <c r="C8" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
     </row>
     <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="131"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="70" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="133"/>
+        <v>115</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="111"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="132"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
       <c r="E10" s="63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="65" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="66">
         <v>250</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="65" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="65" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>129</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>134</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>123</v>
       </c>
       <c r="H15" s="16"/>
     </row>
